--- a/medicine/Psychotrope/Paga_Debiti/Paga_Debiti.xlsx
+++ b/medicine/Psychotrope/Paga_Debiti/Paga_Debiti.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Paga Debiti est un cépage blanc de la Corse qui semble remonter au début de la création de son vignoble. 
@@ -512,7 +524,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Originaire de la péninsule italienne, cette variété n'est pas cependant identique au Pagadebito d'Apulie ni au Biancone di Portoferraio qui porte aussi un nom idenditique. Son qualificatif signifie paie-dettes, et fait allusion aux très forts revenus que pouvait en tirer le vigneron.
 </t>
@@ -543,7 +557,9 @@
           <t>Cycle végétatif</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Son cycle de végétation est très tardif en comparaison avec d'autres variétés. Son débourrement se fait environ 18 jours après le chasselas et sa récolte 5 semaines plus tard. Pour arriver à pleine maturité, ce cépage a besoin de terroirs viticoles très bien exposés où il fournit des vins frais, pauvres en alcool à la couleur jaune paille. 
 </t>
@@ -574,7 +590,9 @@
           <t>Sélection clonale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Pour obtenir des vins de qualité, seuls les clones 868 et 869 sont recommandés.  Ce qui a réduit les surfaces de plantation pour les vins d'appellation et ce cépage ne serait plus planté que sur 2 hectares en Corse.
 </t>
@@ -605,7 +623,9 @@
           <t>Synonyme</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Biancone, Carcamulu (littéralement charge-mule), Carcamanu, Cortinese, Curtinese, Pagadebidu, Pagadebbitu, Paga Debito, Pagadibiti.
 </t>
